--- a/biology/Médecine/András_Pető/András_Pető.xlsx
+++ b/biology/Médecine/András_Pető/András_Pető.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A1s_Pet%C5%91</t>
+          <t>András_Pető</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">András Pető, né le 11 septembre 1893 à Szombathely et mort le 11 septembre 1967 à Budapest, est un médecin pédiatre hongrois[1],[2],[3].
-Il est le fondateur de la « méthode Pető », appelée également l'éducation conductive ou pédagogie conductive, d'éducation spécialisée pour personnes infirmes moteurs cérébrales[4],[5].
-Le principal centre basé à Budapest[6],[7] compte plus de 800 enfants, et cette approche se diffuse mondialement depuis l'ouverture des pays de l'Est[3],[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">András Pető, né le 11 septembre 1893 à Szombathely et mort le 11 septembre 1967 à Budapest, est un médecin pédiatre hongrois.
+Il est le fondateur de la « méthode Pető », appelée également l'éducation conductive ou pédagogie conductive, d'éducation spécialisée pour personnes infirmes moteurs cérébrales,.
+Le principal centre basé à Budapest, compte plus de 800 enfants, et cette approche se diffuse mondialement depuis l'ouverture des pays de l'Est,.
 </t>
         </is>
       </c>
